--- a/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 2 без воды.xlsx
+++ b/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 2 без воды.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levkina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/by_department/mozzarella/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB942B99-AA0B-A24E-AFC1-EDABE6D72346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -20,19 +21,30 @@
     <sheet name="Дополнительная фасовка" sheetId="6" r:id="rId6"/>
     <sheet name="Расписание" sheetId="7" r:id="rId7"/>
     <sheet name="Форм фактор плавления" sheetId="8" state="hidden" r:id="rId8"/>
-    <sheet name="Вода SKU" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="Вода SKU" sheetId="9" r:id="rId9"/>
     <sheet name="Соль SKU" sheetId="10" state="hidden" r:id="rId10"/>
     <sheet name="Типы варок" sheetId="11" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
+    <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$99</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="354">
   <si>
     <t>Дата выработки продукции:</t>
   </si>
@@ -1099,7 +1111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1331,18 +1343,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1350,7 +1362,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="48">
     <dxf>
@@ -2233,19 +2245,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:124" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:124" x14ac:dyDescent="0.2">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -2616,22 +2628,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:124" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:124" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:124" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:124" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:124" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>124</v>
       </c>
@@ -3379,7 +3391,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:124" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>248</v>
       </c>
@@ -3714,7 +3726,7 @@
         <v>-95</v>
       </c>
     </row>
-    <row r="8" spans="1:124" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>249</v>
       </c>
@@ -4088,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:124" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>250</v>
       </c>
@@ -4473,20 +4485,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMK48"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>320</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>341</v>
       </c>
@@ -4508,7 +4520,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>342</v>
       </c>
@@ -4519,7 +4531,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>121</v>
       </c>
@@ -4530,7 +4542,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>120</v>
       </c>
@@ -4541,7 +4553,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>343</v>
       </c>
@@ -4552,7 +4564,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>344</v>
       </c>
@@ -4563,7 +4575,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>81</v>
       </c>
@@ -4574,7 +4586,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>82</v>
       </c>
@@ -4585,7 +4597,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>84</v>
       </c>
@@ -4596,7 +4608,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>72</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>78</v>
       </c>
@@ -4618,7 +4630,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>346</v>
       </c>
@@ -4629,7 +4641,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>83</v>
       </c>
@@ -4640,7 +4652,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>74</v>
       </c>
@@ -4651,7 +4663,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>75</v>
       </c>
@@ -4662,7 +4674,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>76</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>80</v>
       </c>
@@ -4684,7 +4696,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>85</v>
       </c>
@@ -4695,7 +4707,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>347</v>
       </c>
@@ -4706,7 +4718,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>348</v>
       </c>
@@ -4717,7 +4729,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>77</v>
       </c>
@@ -4728,7 +4740,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>73</v>
       </c>
@@ -4739,7 +4751,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>349</v>
       </c>
@@ -4750,7 +4762,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>350</v>
       </c>
@@ -4761,7 +4773,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>79</v>
       </c>
@@ -4772,7 +4784,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>87</v>
       </c>
@@ -4783,7 +4795,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
         <v>89</v>
       </c>
@@ -4794,7 +4806,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
         <v>88</v>
       </c>
@@ -4805,7 +4817,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>86</v>
       </c>
@@ -4816,7 +4828,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
         <v>90</v>
       </c>
@@ -4827,7 +4839,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
         <v>91</v>
       </c>
@@ -4838,7 +4850,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>351</v>
       </c>
@@ -4849,7 +4861,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
         <v>352</v>
       </c>
@@ -4860,7 +4872,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
         <v>9</v>
       </c>
@@ -4871,7 +4883,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
         <v>10</v>
       </c>
@@ -4882,7 +4894,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
         <v>7</v>
       </c>
@@ -4893,7 +4905,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
         <v>11</v>
       </c>
@@ -4904,7 +4916,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
         <v>8</v>
       </c>
@@ -4915,7 +4927,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
         <v>15</v>
       </c>
@@ -4926,7 +4938,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
         <v>17</v>
       </c>
@@ -4937,7 +4949,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
         <v>6</v>
       </c>
@@ -4948,7 +4960,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
         <v>19</v>
       </c>
@@ -4959,7 +4971,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
         <v>18</v>
       </c>
@@ -4970,7 +4982,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
         <v>16</v>
       </c>
@@ -4981,7 +4993,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
         <v>13</v>
       </c>
@@ -4992,7 +5004,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
         <v>12</v>
       </c>
@@ -5003,7 +5015,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
         <v>14</v>
       </c>
@@ -5021,50 +5033,50 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMK7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.81640625" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="69.83203125" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>264</v>
       </c>
@@ -5076,7 +5088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK73"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -5084,25 +5096,25 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="10.26953125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" style="4" customWidth="1"/>
-    <col min="14" max="17" width="9.08984375" style="1" customWidth="1"/>
-    <col min="18" max="23" width="9.08984375" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="10.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="4" customWidth="1"/>
+    <col min="14" max="17" width="9.1640625" style="1" customWidth="1"/>
+    <col min="18" max="23" width="9.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>251</v>
       </c>
@@ -5147,7 +5159,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>264</v>
       </c>
@@ -5199,9 +5211,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="38"/>
+      <c r="B3" s="43" t="s">
         <v>268</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -5229,11 +5241,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>271</v>
       </c>
       <c r="C4" s="28" t="s">
@@ -5278,7 +5290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="28" t="s">
@@ -5306,9 +5318,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
-      <c r="B6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="28" t="s">
         <v>274</v>
       </c>
@@ -5334,9 +5346,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="41" t="s">
         <v>275</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -5364,9 +5376,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="29" t="s">
         <v>269</v>
       </c>
@@ -5392,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
         <v>276</v>
       </c>
@@ -5441,9 +5453,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="43" t="s">
         <v>268</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -5471,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
       <c r="B13" s="42"/>
       <c r="C13" s="27" t="s">
@@ -5499,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
       <c r="B14" s="42"/>
       <c r="C14" s="27" t="s">
@@ -5527,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
       <c r="B15" s="42"/>
       <c r="C15" s="27" t="s">
@@ -5555,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
       <c r="B16" s="42"/>
       <c r="C16" s="27" t="s">
@@ -5583,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="27" t="s">
@@ -5611,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="27" t="s">
@@ -5639,9 +5651,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="27" t="s">
         <v>279</v>
       </c>
@@ -5667,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
         <v>281</v>
       </c>
@@ -5716,7 +5728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="30" t="s">
@@ -5744,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="31" t="s">
@@ -5772,9 +5784,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="42"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="31" t="s">
         <v>284</v>
       </c>
@@ -5800,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="42"/>
       <c r="B26" s="37" t="s">
         <v>265</v>
@@ -5830,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="42"/>
       <c r="B27" s="42"/>
       <c r="C27" s="25" t="s">
@@ -5858,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="42"/>
       <c r="B28" s="42"/>
       <c r="C28" s="25" t="s">
@@ -5886,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="25" t="s">
@@ -5914,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="25" t="s">
@@ -5942,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="25" t="s">
@@ -5970,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="25" t="s">
@@ -5998,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="25" t="s">
@@ -6026,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="25" t="s">
@@ -6054,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="25" t="s">
@@ -6082,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="25" t="s">
@@ -6110,9 +6122,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="42"/>
-      <c r="B37" s="40"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="25" t="s">
         <v>266</v>
       </c>
@@ -6138,9 +6150,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="42"/>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="43" t="s">
         <v>268</v>
       </c>
       <c r="C38" s="27" t="s">
@@ -6168,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="27" t="s">
@@ -6196,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="27" t="s">
@@ -6224,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="27" t="s">
@@ -6252,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="42"/>
       <c r="B42" s="42"/>
       <c r="C42" s="27" t="s">
@@ -6280,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="27" t="s">
@@ -6308,9 +6320,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="27" t="s">
         <v>269</v>
       </c>
@@ -6336,11 +6348,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="40" t="s">
         <v>271</v>
       </c>
       <c r="C47" s="28" t="s">
@@ -6385,7 +6397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="28" t="s">
@@ -6413,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="28" t="s">
@@ -6441,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="28" t="s">
@@ -6469,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="28" t="s">
@@ -6497,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="28" t="s">
@@ -6525,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="28" t="s">
@@ -6553,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="28" t="s">
@@ -6581,9 +6593,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="42"/>
-      <c r="B55" s="40"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="28" t="s">
         <v>272</v>
       </c>
@@ -6609,9 +6621,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="42"/>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="41" t="s">
         <v>275</v>
       </c>
       <c r="C56" s="29" t="s">
@@ -6639,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="29" t="s">
@@ -6667,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="29" t="s">
@@ -6695,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="29" t="s">
@@ -6723,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="29" t="s">
@@ -6751,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="29" t="s">
@@ -6779,9 +6791,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="29" t="s">
         <v>272</v>
       </c>
@@ -6807,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="s">
         <v>294</v>
       </c>
@@ -6855,9 +6867,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="25" t="s">
         <v>297</v>
       </c>
@@ -6883,11 +6895,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="40" t="s">
         <v>271</v>
       </c>
       <c r="C69" s="28" t="s">
@@ -6932,9 +6944,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="42"/>
-      <c r="B70" s="40"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="28" t="s">
         <v>269</v>
       </c>
@@ -6960,9 +6972,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="42"/>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="41" t="s">
         <v>275</v>
       </c>
       <c r="C71" s="29" t="s">
@@ -6990,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
       <c r="C72" s="29" t="s">
@@ -7018,9 +7030,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="29" t="s">
         <v>274</v>
       </c>
@@ -7048,27 +7060,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="A22:A44"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="A47:A62"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B37"/>
     <mergeCell ref="B2"/>
     <mergeCell ref="B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="A22:A44"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="A47:A62"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A69:A73"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7080,43 +7092,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK183"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="1.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="4.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7265625" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>299</v>
       </c>
@@ -7187,13 +7196,13 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J2" s="11" t="str">
         <f t="shared" ref="J2:J28" ca="1" si="0">IF(M2="", IF(O2="","",X2+(INDIRECT("S" &amp; ROW() - 1) - S2)),IF(O2="", "", INDIRECT("S" &amp; ROW() - 1) - S2))</f>
         <v/>
       </c>
       <c r="K2" s="18" t="str">
-        <f>IF(H2="", "", IF(H2="-","",VLOOKUP(H2, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H2="", "", IF(H2="-","",VLOOKUP(H2, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M2" s="20"/>
@@ -7218,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="1" t="str">
-        <f>IF(H2="","",VLOOKUP(H2,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H2="","",VLOOKUP(H2,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U2" s="1">
@@ -7238,13 +7247,13 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J3" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K3" s="18" t="str">
-        <f>IF(H3="", "", IF(H3="-","",VLOOKUP(H3, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H3="", "", IF(H3="-","",VLOOKUP(H3, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M3" s="20"/>
@@ -7269,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="1" t="str">
-        <f>IF(H3="","",VLOOKUP(H3,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H3="","",VLOOKUP(H3,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U3" s="1">
@@ -7289,13 +7298,13 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J4" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K4" s="18" t="str">
-        <f>IF(H4="", "", IF(H4="-","",VLOOKUP(H4, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H4="", "", IF(H4="-","",VLOOKUP(H4, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M4" s="20"/>
@@ -7320,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="1" t="str">
-        <f>IF(H4="","",VLOOKUP(H4,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H4="","",VLOOKUP(H4,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U4" s="1">
@@ -7340,13 +7349,13 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J5" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K5" s="18" t="str">
-        <f>IF(H5="", "", IF(H5="-","",VLOOKUP(H5, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H5="", "", IF(H5="-","",VLOOKUP(H5, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M5" s="20"/>
@@ -7371,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="1" t="str">
-        <f>IF(H5="","",VLOOKUP(H5,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H5="","",VLOOKUP(H5,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U5" s="1">
@@ -7391,13 +7400,13 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J6" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K6" s="18" t="str">
-        <f>IF(H6="", "", IF(H6="-","",VLOOKUP(H6, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H6="", "", IF(H6="-","",VLOOKUP(H6, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M6" s="20"/>
@@ -7422,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="str">
-        <f>IF(H6="","",VLOOKUP(H6,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H6="","",VLOOKUP(H6,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U6" s="1">
@@ -7442,13 +7451,13 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J7" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K7" s="18" t="str">
-        <f>IF(H7="", "", IF(H7="-","",VLOOKUP(H7, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H7="", "", IF(H7="-","",VLOOKUP(H7, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M7" s="20"/>
@@ -7473,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="1" t="str">
-        <f>IF(H7="","",VLOOKUP(H7,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H7="","",VLOOKUP(H7,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U7" s="1">
@@ -7493,13 +7502,13 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J8" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K8" s="18" t="str">
-        <f>IF(H8="", "", IF(H8="-","",VLOOKUP(H8, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H8="", "", IF(H8="-","",VLOOKUP(H8, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M8" s="20"/>
@@ -7524,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="1" t="str">
-        <f>IF(H8="","",VLOOKUP(H8,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H8="","",VLOOKUP(H8,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U8" s="1">
@@ -7544,13 +7553,13 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J9" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K9" s="18" t="str">
-        <f>IF(H9="", "", IF(H9="-","",VLOOKUP(H9, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H9="", "", IF(H9="-","",VLOOKUP(H9, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M9" s="20"/>
@@ -7575,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="str">
-        <f>IF(H9="","",VLOOKUP(H9,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H9="","",VLOOKUP(H9,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U9" s="1">
@@ -7595,13 +7604,13 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J10" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K10" s="18" t="str">
-        <f>IF(H10="", "", IF(H10="-","",VLOOKUP(H10, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H10="", "", IF(H10="-","",VLOOKUP(H10, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M10" s="20"/>
@@ -7626,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="1" t="str">
-        <f>IF(H10="","",VLOOKUP(H10,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H10="","",VLOOKUP(H10,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U10" s="1">
@@ -7646,13 +7655,13 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J11" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K11" s="18" t="str">
-        <f>IF(H11="", "", IF(H11="-","",VLOOKUP(H11, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H11="", "", IF(H11="-","",VLOOKUP(H11, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M11" s="20"/>
@@ -7677,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="1" t="str">
-        <f>IF(H11="","",VLOOKUP(H11,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H11="","",VLOOKUP(H11,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U11" s="1">
@@ -7697,13 +7706,13 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J12" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K12" s="18" t="str">
-        <f>IF(H12="", "", IF(H12="-","",VLOOKUP(H12, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H12="", "", IF(H12="-","",VLOOKUP(H12, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M12" s="20"/>
@@ -7728,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="1" t="str">
-        <f>IF(H12="","",VLOOKUP(H12,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H12="","",VLOOKUP(H12,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U12" s="1">
@@ -7748,13 +7757,13 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J13" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K13" s="18" t="str">
-        <f>IF(H13="", "", IF(H13="-","",VLOOKUP(H13, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H13="", "", IF(H13="-","",VLOOKUP(H13, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M13" s="20"/>
@@ -7779,7 +7788,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="1" t="str">
-        <f>IF(H13="","",VLOOKUP(H13,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H13="","",VLOOKUP(H13,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U13" s="1">
@@ -7799,13 +7808,13 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J14" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K14" s="18" t="str">
-        <f>IF(H14="", "", IF(H14="-","",VLOOKUP(H14, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H14="", "", IF(H14="-","",VLOOKUP(H14, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M14" s="20"/>
@@ -7830,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="1" t="str">
-        <f>IF(H14="","",VLOOKUP(H14,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H14="","",VLOOKUP(H14,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U14" s="1">
@@ -7850,13 +7859,13 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J15" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K15" s="18" t="str">
-        <f>IF(H15="", "", IF(H15="-","",VLOOKUP(H15, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H15="", "", IF(H15="-","",VLOOKUP(H15, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M15" s="20"/>
@@ -7881,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="1" t="str">
-        <f>IF(H15="","",VLOOKUP(H15,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H15="","",VLOOKUP(H15,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U15" s="1">
@@ -7901,13 +7910,13 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J16" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K16" s="18" t="str">
-        <f>IF(H16="", "", IF(H16="-","",VLOOKUP(H16, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H16="", "", IF(H16="-","",VLOOKUP(H16, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M16" s="20"/>
@@ -7932,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="1" t="str">
-        <f>IF(H16="","",VLOOKUP(H16,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H16="","",VLOOKUP(H16,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U16" s="1">
@@ -7952,13 +7961,13 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J17" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K17" s="18" t="str">
-        <f>IF(H17="", "", IF(H17="-","",VLOOKUP(H17, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H17="", "", IF(H17="-","",VLOOKUP(H17, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M17" s="20"/>
@@ -7983,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="1" t="str">
-        <f>IF(H17="","",VLOOKUP(H17,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H17="","",VLOOKUP(H17,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U17" s="1">
@@ -8003,13 +8012,13 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J18" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K18" s="18" t="str">
-        <f>IF(H18="", "", IF(H18="-","",VLOOKUP(H18, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H18="", "", IF(H18="-","",VLOOKUP(H18, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M18" s="20"/>
@@ -8034,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="1" t="str">
-        <f>IF(H18="","",VLOOKUP(H18,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H18="","",VLOOKUP(H18,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U18" s="1">
@@ -8054,13 +8063,13 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J19" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K19" s="18" t="str">
-        <f>IF(H19="", "", IF(H19="-","",VLOOKUP(H19, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H19="", "", IF(H19="-","",VLOOKUP(H19, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M19" s="20"/>
@@ -8085,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="1" t="str">
-        <f>IF(H19="","",VLOOKUP(H19,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H19="","",VLOOKUP(H19,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U19" s="1">
@@ -8105,13 +8114,13 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J20" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K20" s="18" t="str">
-        <f>IF(H20="", "", IF(H20="-","",VLOOKUP(H20, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H20="", "", IF(H20="-","",VLOOKUP(H20, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M20" s="20"/>
@@ -8136,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="1" t="str">
-        <f>IF(H20="","",VLOOKUP(H20,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H20="","",VLOOKUP(H20,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U20" s="1">
@@ -8156,13 +8165,13 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J21" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K21" s="18" t="str">
-        <f>IF(H21="", "", IF(H21="-","",VLOOKUP(H21, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H21="", "", IF(H21="-","",VLOOKUP(H21, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M21" s="20"/>
@@ -8187,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="1" t="str">
-        <f>IF(H21="","",VLOOKUP(H21,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H21="","",VLOOKUP(H21,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U21" s="1">
@@ -8207,13 +8216,13 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J22" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K22" s="18" t="str">
-        <f>IF(H22="", "", IF(H22="-","",VLOOKUP(H22, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H22="", "", IF(H22="-","",VLOOKUP(H22, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M22" s="19"/>
@@ -8238,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="1" t="str">
-        <f>IF(H22="","",VLOOKUP(H22,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H22="","",VLOOKUP(H22,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U22" s="1">
@@ -8258,13 +8267,13 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J23" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K23" s="18" t="str">
-        <f>IF(H23="", "", IF(H23="-","",VLOOKUP(H23, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H23="", "", IF(H23="-","",VLOOKUP(H23, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M23" s="20"/>
@@ -8289,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="1" t="str">
-        <f>IF(H23="","",VLOOKUP(H23,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H23="","",VLOOKUP(H23,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U23" s="1">
@@ -8309,13 +8318,13 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J24" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K24" s="18" t="str">
-        <f>IF(H24="", "", IF(H24="-","",VLOOKUP(H24, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H24="", "", IF(H24="-","",VLOOKUP(H24, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M24" s="20"/>
@@ -8340,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="1" t="str">
-        <f>IF(H24="","",VLOOKUP(H24,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H24="","",VLOOKUP(H24,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U24" s="1">
@@ -8360,13 +8369,13 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J25" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K25" s="18" t="str">
-        <f>IF(H25="", "", IF(H25="-","",VLOOKUP(H25, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H25="", "", IF(H25="-","",VLOOKUP(H25, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M25" s="20"/>
@@ -8391,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="1" t="str">
-        <f>IF(H25="","",VLOOKUP(H25,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H25="","",VLOOKUP(H25,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U25" s="1">
@@ -8411,13 +8420,13 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J26" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K26" s="18" t="str">
-        <f>IF(H26="", "", IF(H26="-","",VLOOKUP(H26, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H26="", "", IF(H26="-","",VLOOKUP(H26, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M26" s="20"/>
@@ -8442,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="1" t="str">
-        <f>IF(H26="","",VLOOKUP(H26,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H26="","",VLOOKUP(H26,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U26" s="1">
@@ -8462,13 +8471,13 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J27" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K27" s="18" t="str">
-        <f>IF(H27="", "", IF(H27="-","",VLOOKUP(H27, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H27="", "", IF(H27="-","",VLOOKUP(H27, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M27" s="20"/>
@@ -8493,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1" t="str">
-        <f>IF(H27="","",VLOOKUP(H27,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H27="","",VLOOKUP(H27,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U27" s="1">
@@ -8513,13 +8522,13 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J28" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="K28" s="18" t="str">
-        <f>IF(H28="", "", IF(H28="-","",VLOOKUP(H28, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H28="", "", IF(H28="-","",VLOOKUP(H28, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M28" s="20"/>
@@ -8544,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="1" t="str">
-        <f>IF(H28="","",VLOOKUP(H28,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H28="","",VLOOKUP(H28,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U28" s="1">
@@ -8564,13 +8573,13 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J29" s="11" t="str">
         <f t="shared" ref="J29:J60" ca="1" si="10">IF(M29="", IF(O29="","",X29+(INDIRECT("S" &amp; ROW() - 1) - S29)),IF(O29="", "", INDIRECT("S" &amp; ROW() - 1) - S29))</f>
         <v/>
       </c>
       <c r="K29" s="18" t="str">
-        <f>IF(H29="", "", IF(H29="-","",VLOOKUP(H29, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H29="", "", IF(H29="-","",VLOOKUP(H29, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M29" s="20"/>
@@ -8583,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" ref="Q29:Q60" ca="1" si="13">IF(O29 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P29)))), 0)</f>
+        <f t="shared" ref="Q29:Q36" ca="1" si="13">IF(O29 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P29)))), 0)</f>
         <v>0</v>
       </c>
       <c r="R29" s="1">
@@ -8595,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="1" t="str">
-        <f>IF(H29="","",VLOOKUP(H29,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H29="","",VLOOKUP(H29,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U29" s="1">
@@ -8615,13 +8624,13 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J30" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K30" s="18" t="str">
-        <f>IF(H30="", "", IF(H30="-","",VLOOKUP(H30, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H30="", "", IF(H30="-","",VLOOKUP(H30, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M30" s="20"/>
@@ -8646,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="1" t="str">
-        <f>IF(H30="","",VLOOKUP(H30,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H30="","",VLOOKUP(H30,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U30" s="1">
@@ -8666,13 +8675,13 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J31" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K31" s="18" t="str">
-        <f>IF(H31="", "", IF(H31="-","",VLOOKUP(H31, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H31="", "", IF(H31="-","",VLOOKUP(H31, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M31" s="20"/>
@@ -8697,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="1" t="str">
-        <f>IF(H31="","",VLOOKUP(H31,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H31="","",VLOOKUP(H31,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U31" s="1">
@@ -8717,13 +8726,13 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J32" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K32" s="18" t="str">
-        <f>IF(H32="", "", IF(H32="-","",VLOOKUP(H32, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H32="", "", IF(H32="-","",VLOOKUP(H32, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M32" s="20"/>
@@ -8748,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="1" t="str">
-        <f>IF(H32="","",VLOOKUP(H32,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H32="","",VLOOKUP(H32,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U32" s="1">
@@ -8768,13 +8777,13 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J33" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K33" s="18" t="str">
-        <f>IF(H33="", "", IF(H33="-","",VLOOKUP(H33, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H33="", "", IF(H33="-","",VLOOKUP(H33, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M33" s="20"/>
@@ -8799,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="1" t="str">
-        <f>IF(H33="","",VLOOKUP(H33,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H33="","",VLOOKUP(H33,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U33" s="1">
@@ -8819,13 +8828,13 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J34" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K34" s="18" t="str">
-        <f>IF(H34="", "", IF(H34="-","",VLOOKUP(H34, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H34="", "", IF(H34="-","",VLOOKUP(H34, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M34" s="20"/>
@@ -8850,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="1" t="str">
-        <f>IF(H34="","",VLOOKUP(H34,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H34="","",VLOOKUP(H34,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U34" s="1">
@@ -8870,13 +8879,13 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J35" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K35" s="18" t="str">
-        <f>IF(H35="", "", IF(H35="-","",VLOOKUP(H35, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H35="", "", IF(H35="-","",VLOOKUP(H35, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M35" s="20"/>
@@ -8901,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="1" t="str">
-        <f>IF(H35="","",VLOOKUP(H35,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H35="","",VLOOKUP(H35,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U35" s="1">
@@ -8921,13 +8930,13 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J36" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K36" s="18" t="str">
-        <f>IF(H36="", "", IF(H36="-","",VLOOKUP(H36, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H36="", "", IF(H36="-","",VLOOKUP(H36, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M36" s="20"/>
@@ -8952,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="1" t="str">
-        <f>IF(H36="","",VLOOKUP(H36,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H36="","",VLOOKUP(H36,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U36" s="1">
@@ -8972,13 +8981,13 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J37" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K37" s="18" t="str">
-        <f>IF(H37="", "", IF(H37="-","",VLOOKUP(H37, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H37="", "", IF(H37="-","",VLOOKUP(H37, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M37" s="20"/>
@@ -9003,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="1" t="str">
-        <f>IF(H37="","",VLOOKUP(H37,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H37="","",VLOOKUP(H37,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U37" s="1">
@@ -9023,13 +9032,13 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J38" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K38" s="18" t="str">
-        <f>IF(H38="", "", IF(H38="-","",VLOOKUP(H38, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H38="", "", IF(H38="-","",VLOOKUP(H38, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M38" s="20"/>
@@ -9054,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="1" t="str">
-        <f>IF(H38="","",VLOOKUP(H38,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H38="","",VLOOKUP(H38,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U38" s="1">
@@ -9074,13 +9083,13 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J39" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K39" s="18" t="str">
-        <f>IF(H39="", "", IF(H39="-","",VLOOKUP(H39, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H39="", "", IF(H39="-","",VLOOKUP(H39, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M39" s="20"/>
@@ -9105,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="1" t="str">
-        <f>IF(H39="","",VLOOKUP(H39,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H39="","",VLOOKUP(H39,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U39" s="1">
@@ -9125,13 +9134,13 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K40" s="18" t="str">
-        <f>IF(H40="", "", IF(H40="-","",VLOOKUP(H40, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H40="", "", IF(H40="-","",VLOOKUP(H40, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M40" s="20"/>
@@ -9156,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="1" t="str">
-        <f>IF(H40="","",VLOOKUP(H40,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H40="","",VLOOKUP(H40,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U40" s="1">
@@ -9176,13 +9185,13 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J41" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K41" s="18" t="str">
-        <f>IF(H41="", "", IF(H41="-","",VLOOKUP(H41, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H41="", "", IF(H41="-","",VLOOKUP(H41, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M41" s="20"/>
@@ -9207,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="1" t="str">
-        <f>IF(H41="","",VLOOKUP(H41,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H41="","",VLOOKUP(H41,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U41" s="1">
@@ -9227,13 +9236,13 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J42" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K42" s="18" t="str">
-        <f>IF(H42="", "", IF(H42="-","",VLOOKUP(H42, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H42="", "", IF(H42="-","",VLOOKUP(H42, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M42" s="20"/>
@@ -9258,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="1" t="str">
-        <f>IF(H42="","",VLOOKUP(H42,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H42="","",VLOOKUP(H42,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U42" s="1">
@@ -9278,13 +9287,13 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K43" s="18" t="str">
-        <f>IF(H43="", "", IF(H43="-","",VLOOKUP(H43, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H43="", "", IF(H43="-","",VLOOKUP(H43, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M43" s="20"/>
@@ -9309,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="1" t="str">
-        <f>IF(H43="","",VLOOKUP(H43,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H43="","",VLOOKUP(H43,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U43" s="1">
@@ -9329,13 +9338,13 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J44" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K44" s="18" t="str">
-        <f>IF(H44="", "", IF(H44="-","",VLOOKUP(H44, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H44="", "", IF(H44="-","",VLOOKUP(H44, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M44" s="20"/>
@@ -9360,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="1" t="str">
-        <f>IF(H44="","",VLOOKUP(H44,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H44="","",VLOOKUP(H44,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U44" s="1">
@@ -9380,13 +9389,13 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J45" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K45" s="18" t="str">
-        <f>IF(H45="", "", IF(H45="-","",VLOOKUP(H45, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H45="", "", IF(H45="-","",VLOOKUP(H45, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M45" s="20"/>
@@ -9411,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="1" t="str">
-        <f>IF(H45="","",VLOOKUP(H45,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H45="","",VLOOKUP(H45,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U45" s="1">
@@ -9431,13 +9440,13 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K46" s="18" t="str">
-        <f>IF(H46="", "", IF(H46="-","",VLOOKUP(H46, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H46="", "", IF(H46="-","",VLOOKUP(H46, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M46" s="20"/>
@@ -9462,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="1" t="str">
-        <f>IF(H46="","",VLOOKUP(H46,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H46="","",VLOOKUP(H46,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U46" s="1">
@@ -9482,13 +9491,13 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K47" s="18" t="str">
-        <f>IF(H47="", "", IF(H47="-","",VLOOKUP(H47, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H47="", "", IF(H47="-","",VLOOKUP(H47, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M47" s="20"/>
@@ -9513,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="1" t="str">
-        <f>IF(H47="","",VLOOKUP(H47,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H47="","",VLOOKUP(H47,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U47" s="1">
@@ -9533,13 +9542,13 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K48" s="18" t="str">
-        <f>IF(H48="", "", IF(H48="-","",VLOOKUP(H48, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H48="", "", IF(H48="-","",VLOOKUP(H48, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M48" s="20"/>
@@ -9564,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="1" t="str">
-        <f>IF(H48="","",VLOOKUP(H48,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H48="","",VLOOKUP(H48,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U48" s="1">
@@ -9584,13 +9593,13 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K49" s="18" t="str">
-        <f>IF(H49="", "", IF(H49="-","",VLOOKUP(H49, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H49="", "", IF(H49="-","",VLOOKUP(H49, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M49" s="20"/>
@@ -9615,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="1" t="str">
-        <f>IF(H49="","",VLOOKUP(H49,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H49="","",VLOOKUP(H49,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U49" s="1">
@@ -9635,13 +9644,13 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J50" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K50" s="18" t="str">
-        <f>IF(H50="", "", IF(H50="-","",VLOOKUP(H50, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H50="", "", IF(H50="-","",VLOOKUP(H50, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M50" s="20"/>
@@ -9666,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="1" t="str">
-        <f>IF(H50="","",VLOOKUP(H50,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H50="","",VLOOKUP(H50,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U50" s="1">
@@ -9686,13 +9695,13 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K51" s="18" t="str">
-        <f>IF(H51="", "", IF(H51="-","",VLOOKUP(H51, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H51="", "", IF(H51="-","",VLOOKUP(H51, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M51" s="20"/>
@@ -9717,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="1" t="str">
-        <f>IF(H51="","",VLOOKUP(H51,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H51="","",VLOOKUP(H51,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U51" s="1">
@@ -9737,13 +9746,13 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K52" s="18" t="str">
-        <f>IF(H52="", "", IF(H52="-","",VLOOKUP(H52, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H52="", "", IF(H52="-","",VLOOKUP(H52, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M52" s="20"/>
@@ -9768,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="1" t="str">
-        <f>IF(H52="","",VLOOKUP(H52,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H52="","",VLOOKUP(H52,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U52" s="1">
@@ -9788,13 +9797,13 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K53" s="18" t="str">
-        <f>IF(H53="", "", IF(H53="-","",VLOOKUP(H53, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H53="", "", IF(H53="-","",VLOOKUP(H53, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M53" s="20"/>
@@ -9819,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="T53" s="1" t="str">
-        <f>IF(H53="","",VLOOKUP(H53,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H53="","",VLOOKUP(H53,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U53" s="1">
@@ -9839,13 +9848,13 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K54" s="18" t="str">
-        <f>IF(H54="", "", IF(H54="-","",VLOOKUP(H54, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H54="", "", IF(H54="-","",VLOOKUP(H54, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M54" s="20"/>
@@ -9870,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="1" t="str">
-        <f>IF(H54="","",VLOOKUP(H54,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H54="","",VLOOKUP(H54,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U54" s="1">
@@ -9890,13 +9899,13 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K55" s="18" t="str">
-        <f>IF(H55="", "", IF(H55="-","",VLOOKUP(H55, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H55="", "", IF(H55="-","",VLOOKUP(H55, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M55" s="20"/>
@@ -9921,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="1" t="str">
-        <f>IF(H55="","",VLOOKUP(H55,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H55="","",VLOOKUP(H55,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U55" s="1">
@@ -9941,13 +9950,13 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K56" s="18" t="str">
-        <f>IF(H56="", "", IF(H56="-","",VLOOKUP(H56, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H56="", "", IF(H56="-","",VLOOKUP(H56, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M56" s="20"/>
@@ -9972,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="1" t="str">
-        <f>IF(H56="","",VLOOKUP(H56,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H56="","",VLOOKUP(H56,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U56" s="1">
@@ -9992,13 +10001,13 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K57" s="18" t="str">
-        <f>IF(H57="", "", IF(H57="-","",VLOOKUP(H57, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H57="", "", IF(H57="-","",VLOOKUP(H57, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M57" s="20"/>
@@ -10023,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="1" t="str">
-        <f>IF(H57="","",VLOOKUP(H57,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H57="","",VLOOKUP(H57,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U57" s="1">
@@ -10043,13 +10052,13 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K58" s="18" t="str">
-        <f>IF(H58="", "", IF(H58="-","",VLOOKUP(H58, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H58="", "", IF(H58="-","",VLOOKUP(H58, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M58" s="20"/>
@@ -10074,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="1" t="str">
-        <f>IF(H58="","",VLOOKUP(H58,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H58="","",VLOOKUP(H58,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U58" s="1">
@@ -10094,13 +10103,13 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K59" s="18" t="str">
-        <f>IF(H59="", "", IF(H59="-","",VLOOKUP(H59, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H59="", "", IF(H59="-","",VLOOKUP(H59, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M59" s="20"/>
@@ -10125,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="1" t="str">
-        <f>IF(H59="","",VLOOKUP(H59,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H59="","",VLOOKUP(H59,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U59" s="1">
@@ -10145,13 +10154,13 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K60" s="18" t="str">
-        <f>IF(H60="", "", IF(H60="-","",VLOOKUP(H60, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H60="", "", IF(H60="-","",VLOOKUP(H60, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M60" s="20"/>
@@ -10176,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="1" t="str">
-        <f>IF(H60="","",VLOOKUP(H60,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H60="","",VLOOKUP(H60,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U60" s="1">
@@ -10196,22 +10205,22 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="11" t="str">
         <f t="shared" ref="J61:J85" ca="1" si="21">IF(M61="", IF(O61="","",X61+(INDIRECT("S" &amp; ROW() - 1) - S61)),IF(O61="", "", INDIRECT("S" &amp; ROW() - 1) - S61))</f>
         <v/>
       </c>
       <c r="K61" s="18" t="str">
-        <f>IF(H61="", "", IF(H61="-","",VLOOKUP(H61, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H61="", "", IF(H61="-","",VLOOKUP(H61, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M61" s="20"/>
       <c r="N61" s="19" t="str">
-        <f t="shared" ref="N61:N92" ca="1" si="22">IF(M61="", IF(X61=0, "", X61), IF(V61 = "", "", IF(V61/U61 = 0, "", V61/U61)))</f>
+        <f t="shared" ref="N61:N85" ca="1" si="22">IF(M61="", IF(X61=0, "", X61), IF(V61 = "", "", IF(V61/U61 = 0, "", V61/U61)))</f>
         <v/>
       </c>
       <c r="P61" s="1">
-        <f t="shared" ref="P61:P92" si="23">IF(O61 = "-", -W61,I61)</f>
+        <f t="shared" ref="P61:P85" si="23">IF(O61 = "-", -W61,I61)</f>
         <v>0</v>
       </c>
       <c r="Q61" s="1">
@@ -10227,7 +10236,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="1" t="str">
-        <f>IF(H61="","",VLOOKUP(H61,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H61="","",VLOOKUP(H61,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U61" s="1">
@@ -10239,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" ref="W61:W92" ca="1" si="28">IF(V61 = "", "", V61/U61)</f>
+        <f t="shared" ref="W61:W85" ca="1" si="28">IF(V61 = "", "", V61/U61)</f>
         <v>0</v>
       </c>
       <c r="X61" s="1" t="str">
@@ -10247,13 +10256,13 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K62" s="18" t="str">
-        <f>IF(H62="", "", IF(H62="-","",VLOOKUP(H62, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H62="", "", IF(H62="-","",VLOOKUP(H62, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M62" s="20"/>
@@ -10278,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="1" t="str">
-        <f>IF(H62="","",VLOOKUP(H62,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H62="","",VLOOKUP(H62,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U62" s="1">
@@ -10298,13 +10307,13 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K63" s="18" t="str">
-        <f>IF(H63="", "", IF(H63="-","",VLOOKUP(H63, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H63="", "", IF(H63="-","",VLOOKUP(H63, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M63" s="20"/>
@@ -10329,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="1" t="str">
-        <f>IF(H63="","",VLOOKUP(H63,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H63="","",VLOOKUP(H63,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U63" s="1">
@@ -10349,13 +10358,13 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K64" s="18" t="str">
-        <f>IF(H64="", "", IF(H64="-","",VLOOKUP(H64, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H64="", "", IF(H64="-","",VLOOKUP(H64, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M64" s="20"/>
@@ -10380,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="1" t="str">
-        <f>IF(H64="","",VLOOKUP(H64,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H64="","",VLOOKUP(H64,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U64" s="1">
@@ -10400,13 +10409,13 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K65" s="18" t="str">
-        <f>IF(H65="", "", IF(H65="-","",VLOOKUP(H65, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H65="", "", IF(H65="-","",VLOOKUP(H65, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M65" s="20"/>
@@ -10431,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="1" t="str">
-        <f>IF(H65="","",VLOOKUP(H65,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H65="","",VLOOKUP(H65,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U65" s="1">
@@ -10451,13 +10460,13 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K66" s="18" t="str">
-        <f>IF(H66="", "", IF(H66="-","",VLOOKUP(H66, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H66="", "", IF(H66="-","",VLOOKUP(H66, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M66" s="20"/>
@@ -10482,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="T66" s="1" t="str">
-        <f>IF(H66="","",VLOOKUP(H66,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H66="","",VLOOKUP(H66,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U66" s="1">
@@ -10502,13 +10511,13 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K67" s="18" t="str">
-        <f>IF(H67="", "", IF(H67="-","",VLOOKUP(H67, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H67="", "", IF(H67="-","",VLOOKUP(H67, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M67" s="20"/>
@@ -10533,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="T67" s="1" t="str">
-        <f>IF(H67="","",VLOOKUP(H67,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H67="","",VLOOKUP(H67,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U67" s="1">
@@ -10553,13 +10562,13 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J68" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K68" s="18" t="str">
-        <f>IF(H68="", "", IF(H68="-","",VLOOKUP(H68, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H68="", "", IF(H68="-","",VLOOKUP(H68, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M68" s="20"/>
@@ -10584,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="T68" s="1" t="str">
-        <f>IF(H68="","",VLOOKUP(H68,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H68="","",VLOOKUP(H68,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U68" s="1">
@@ -10604,13 +10613,13 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K69" s="18" t="str">
-        <f>IF(H69="", "", IF(H69="-","",VLOOKUP(H69, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H69="", "", IF(H69="-","",VLOOKUP(H69, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M69" s="20"/>
@@ -10635,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="T69" s="1" t="str">
-        <f>IF(H69="","",VLOOKUP(H69,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H69="","",VLOOKUP(H69,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U69" s="1">
@@ -10655,13 +10664,13 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J70" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K70" s="18" t="str">
-        <f>IF(H70="", "", IF(H70="-","",VLOOKUP(H70, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H70="", "", IF(H70="-","",VLOOKUP(H70, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M70" s="20"/>
@@ -10686,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="T70" s="1" t="str">
-        <f>IF(H70="","",VLOOKUP(H70,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H70="","",VLOOKUP(H70,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U70" s="1">
@@ -10706,13 +10715,13 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K71" s="18" t="str">
-        <f>IF(H71="", "", IF(H71="-","",VLOOKUP(H71, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H71="", "", IF(H71="-","",VLOOKUP(H71, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M71" s="20"/>
@@ -10737,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="T71" s="1" t="str">
-        <f>IF(H71="","",VLOOKUP(H71,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H71="","",VLOOKUP(H71,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U71" s="1">
@@ -10757,13 +10766,13 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K72" s="18" t="str">
-        <f>IF(H72="", "", IF(H72="-","",VLOOKUP(H72, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H72="", "", IF(H72="-","",VLOOKUP(H72, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M72" s="20"/>
@@ -10788,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="T72" s="1" t="str">
-        <f>IF(H72="","",VLOOKUP(H72,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H72="","",VLOOKUP(H72,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U72" s="1">
@@ -10808,13 +10817,13 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K73" s="18" t="str">
-        <f>IF(H73="", "", IF(H73="-","",VLOOKUP(H73, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H73="", "", IF(H73="-","",VLOOKUP(H73, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M73" s="20"/>
@@ -10839,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="T73" s="1" t="str">
-        <f>IF(H73="","",VLOOKUP(H73,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H73="","",VLOOKUP(H73,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U73" s="1">
@@ -10859,13 +10868,13 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J74" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K74" s="18" t="str">
-        <f>IF(H74="", "", IF(H74="-","",VLOOKUP(H74, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H74="", "", IF(H74="-","",VLOOKUP(H74, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M74" s="20"/>
@@ -10890,7 +10899,7 @@
         <v>0</v>
       </c>
       <c r="T74" s="1" t="str">
-        <f>IF(H74="","",VLOOKUP(H74,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H74="","",VLOOKUP(H74,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U74" s="1">
@@ -10910,13 +10919,13 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J75" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K75" s="18" t="str">
-        <f>IF(H75="", "", IF(H75="-","",VLOOKUP(H75, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H75="", "", IF(H75="-","",VLOOKUP(H75, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M75" s="20"/>
@@ -10941,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="T75" s="1" t="str">
-        <f>IF(H75="","",VLOOKUP(H75,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H75="","",VLOOKUP(H75,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U75" s="1">
@@ -10961,13 +10970,13 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J76" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K76" s="18" t="str">
-        <f>IF(H76="", "", IF(H76="-","",VLOOKUP(H76, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H76="", "", IF(H76="-","",VLOOKUP(H76, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M76" s="20"/>
@@ -10992,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="T76" s="1" t="str">
-        <f>IF(H76="","",VLOOKUP(H76,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H76="","",VLOOKUP(H76,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U76" s="1">
@@ -11012,13 +11021,13 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J77" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K77" s="18" t="str">
-        <f>IF(H77="", "", IF(H77="-","",VLOOKUP(H77, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H77="", "", IF(H77="-","",VLOOKUP(H77, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M77" s="20"/>
@@ -11043,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="T77" s="1" t="str">
-        <f>IF(H77="","",VLOOKUP(H77,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H77="","",VLOOKUP(H77,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U77" s="1">
@@ -11063,13 +11072,13 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K78" s="18" t="str">
-        <f>IF(H78="", "", IF(H78="-","",VLOOKUP(H78, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H78="", "", IF(H78="-","",VLOOKUP(H78, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M78" s="20"/>
@@ -11094,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="T78" s="1" t="str">
-        <f>IF(H78="","",VLOOKUP(H78,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H78="","",VLOOKUP(H78,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U78" s="1">
@@ -11114,13 +11123,13 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J79" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K79" s="18" t="str">
-        <f>IF(H79="", "", IF(H79="-","",VLOOKUP(H79, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H79="", "", IF(H79="-","",VLOOKUP(H79, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M79" s="20"/>
@@ -11145,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="T79" s="1" t="str">
-        <f>IF(H79="","",VLOOKUP(H79,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H79="","",VLOOKUP(H79,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U79" s="1">
@@ -11165,13 +11174,13 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K80" s="18" t="str">
-        <f>IF(H80="", "", IF(H80="-","",VLOOKUP(H80, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H80="", "", IF(H80="-","",VLOOKUP(H80, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M80" s="20"/>
@@ -11196,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="T80" s="1" t="str">
-        <f>IF(H80="","",VLOOKUP(H80,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H80="","",VLOOKUP(H80,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U80" s="1">
@@ -11216,13 +11225,13 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J81" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K81" s="18" t="str">
-        <f>IF(H81="", "", IF(H81="-","",VLOOKUP(H81, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H81="", "", IF(H81="-","",VLOOKUP(H81, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M81" s="20"/>
@@ -11247,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="T81" s="1" t="str">
-        <f>IF(H81="","",VLOOKUP(H81,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H81="","",VLOOKUP(H81,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U81" s="1">
@@ -11267,13 +11276,13 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J82" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K82" s="18" t="str">
-        <f>IF(H82="", "", IF(H82="-","",VLOOKUP(H82, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H82="", "", IF(H82="-","",VLOOKUP(H82, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M82" s="20"/>
@@ -11298,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="T82" s="1" t="str">
-        <f>IF(H82="","",VLOOKUP(H82,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H82="","",VLOOKUP(H82,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U82" s="1">
@@ -11318,13 +11327,13 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J83" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K83" s="18" t="str">
-        <f>IF(H83="", "", IF(H83="-","",VLOOKUP(H83, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H83="", "", IF(H83="-","",VLOOKUP(H83, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M83" s="20"/>
@@ -11349,7 +11358,7 @@
         <v>0</v>
       </c>
       <c r="T83" s="1" t="str">
-        <f>IF(H83="","",VLOOKUP(H83,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H83="","",VLOOKUP(H83,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U83" s="1">
@@ -11369,13 +11378,13 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J84" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K84" s="18" t="str">
-        <f>IF(H84="", "", IF(H84="-","",VLOOKUP(H84, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H84="", "", IF(H84="-","",VLOOKUP(H84, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M84" s="20"/>
@@ -11400,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="T84" s="1" t="str">
-        <f>IF(H84="","",VLOOKUP(H84,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H84="","",VLOOKUP(H84,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U84" s="1">
@@ -11420,13 +11429,13 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J85" s="11" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K85" s="18" t="str">
-        <f>IF(H85="", "", IF(H85="-","",VLOOKUP(H85, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H85="", "", IF(H85="-","",VLOOKUP(H85, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
       <c r="M85" s="20"/>
@@ -11451,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="T85" s="1" t="str">
-        <f>IF(H85="","",VLOOKUP(H85,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <f>IF(H85="","",VLOOKUP(H85,'Вода SKU'!$A$1:$B$149,2,0))</f>
         <v/>
       </c>
       <c r="U85" s="1">
@@ -11471,591 +11480,591 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K86" s="18" t="str">
-        <f>IF(H86="", "", IF(H86="-","",VLOOKUP(H86, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H86="", "", IF(H86="-","",VLOOKUP(H86, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K87" s="18" t="str">
-        <f>IF(H87="", "", IF(H87="-","",VLOOKUP(H87, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H87="", "", IF(H87="-","",VLOOKUP(H87, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K88" s="18" t="str">
-        <f>IF(H88="", "", IF(H88="-","",VLOOKUP(H88, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H88="", "", IF(H88="-","",VLOOKUP(H88, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K89" s="18" t="str">
-        <f>IF(H89="", "", IF(H89="-","",VLOOKUP(H89, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H89="", "", IF(H89="-","",VLOOKUP(H89, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K90" s="18" t="str">
-        <f>IF(H90="", "", IF(H90="-","",VLOOKUP(H90, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H90="", "", IF(H90="-","",VLOOKUP(H90, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K91" s="18" t="str">
-        <f>IF(H91="", "", IF(H91="-","",VLOOKUP(H91, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H91="", "", IF(H91="-","",VLOOKUP(H91, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K92" s="18" t="str">
-        <f>IF(H92="", "", IF(H92="-","",VLOOKUP(H92, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H92="", "", IF(H92="-","",VLOOKUP(H92, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K93" s="18" t="str">
-        <f>IF(H93="", "", IF(H93="-","",VLOOKUP(H93, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H93="", "", IF(H93="-","",VLOOKUP(H93, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K94" s="18" t="str">
-        <f>IF(H94="", "", IF(H94="-","",VLOOKUP(H94, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H94="", "", IF(H94="-","",VLOOKUP(H94, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K95" s="11" t="str">
-        <f>IF(H95="", "", IF(H95="-","",VLOOKUP(H95, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H95="", "", IF(H95="-","",VLOOKUP(H95, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K96" s="11" t="str">
-        <f>IF(H96="", "", IF(H96="-","",VLOOKUP(H96, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H96="", "", IF(H96="-","",VLOOKUP(H96, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K97" s="11" t="str">
-        <f>IF(H97="", "", IF(H97="-","",VLOOKUP(H97, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H97="", "", IF(H97="-","",VLOOKUP(H97, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K98" s="11" t="str">
-        <f>IF(H98="", "", IF(H98="-","",VLOOKUP(H98, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H98="", "", IF(H98="-","",VLOOKUP(H98, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K99" s="11" t="str">
-        <f>IF(H99="", "", IF(H99="-","",VLOOKUP(H99, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H99="", "", IF(H99="-","",VLOOKUP(H99, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K100" s="11" t="str">
-        <f>IF(H100="", "", IF(H100="-","",VLOOKUP(H100, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H100="", "", IF(H100="-","",VLOOKUP(H100, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K101" s="11" t="str">
-        <f>IF(H101="", "", IF(H101="-","",VLOOKUP(H101, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H101="", "", IF(H101="-","",VLOOKUP(H101, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K102" s="11" t="str">
-        <f>IF(H102="", "", IF(H102="-","",VLOOKUP(H102, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H102="", "", IF(H102="-","",VLOOKUP(H102, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K103" s="11" t="str">
-        <f>IF(H103="", "", IF(H103="-","",VLOOKUP(H103, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H103="", "", IF(H103="-","",VLOOKUP(H103, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K104" s="11" t="str">
-        <f>IF(H104="", "", IF(H104="-","",VLOOKUP(H104, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H104="", "", IF(H104="-","",VLOOKUP(H104, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K105" s="11" t="str">
-        <f>IF(H105="", "", IF(H105="-","",VLOOKUP(H105, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H105="", "", IF(H105="-","",VLOOKUP(H105, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K106" s="11" t="str">
-        <f>IF(H106="", "", IF(H106="-","",VLOOKUP(H106, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H106="", "", IF(H106="-","",VLOOKUP(H106, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K107" s="11" t="str">
-        <f>IF(H107="", "", IF(H107="-","",VLOOKUP(H107, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H107="", "", IF(H107="-","",VLOOKUP(H107, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K108" s="11" t="str">
-        <f>IF(H108="", "", IF(H108="-","",VLOOKUP(H108, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H108="", "", IF(H108="-","",VLOOKUP(H108, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K109" s="11" t="str">
-        <f>IF(H109="", "", IF(H109="-","",VLOOKUP(H109, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H109="", "", IF(H109="-","",VLOOKUP(H109, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K110" s="11" t="str">
-        <f>IF(H110="", "", IF(H110="-","",VLOOKUP(H110, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H110="", "", IF(H110="-","",VLOOKUP(H110, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K111" s="11" t="str">
-        <f>IF(H111="", "", IF(H111="-","",VLOOKUP(H111, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H111="", "", IF(H111="-","",VLOOKUP(H111, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K112" s="11" t="str">
-        <f>IF(H112="", "", IF(H112="-","",VLOOKUP(H112, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H112="", "", IF(H112="-","",VLOOKUP(H112, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K113" s="11" t="str">
-        <f>IF(H113="", "", IF(H113="-","",VLOOKUP(H113, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H113="", "", IF(H113="-","",VLOOKUP(H113, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K114" s="11" t="str">
-        <f>IF(H114="", "", IF(H114="-","",VLOOKUP(H114, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H114="", "", IF(H114="-","",VLOOKUP(H114, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K115" s="11" t="str">
-        <f>IF(H115="", "", IF(H115="-","",VLOOKUP(H115, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H115="", "", IF(H115="-","",VLOOKUP(H115, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K116" s="11" t="str">
-        <f>IF(H116="", "", IF(H116="-","",VLOOKUP(H116, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H116="", "", IF(H116="-","",VLOOKUP(H116, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K117" s="11" t="str">
-        <f>IF(H117="", "", IF(H117="-","",VLOOKUP(H117, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H117="", "", IF(H117="-","",VLOOKUP(H117, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K118" s="11" t="str">
-        <f>IF(H118="", "", IF(H118="-","",VLOOKUP(H118, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H118="", "", IF(H118="-","",VLOOKUP(H118, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K119" s="11" t="str">
-        <f>IF(H119="", "", IF(H119="-","",VLOOKUP(H119, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H119="", "", IF(H119="-","",VLOOKUP(H119, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K120" s="11" t="str">
-        <f>IF(H120="", "", IF(H120="-","",VLOOKUP(H120, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H120="", "", IF(H120="-","",VLOOKUP(H120, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K121" s="11" t="str">
-        <f>IF(H121="", "", IF(H121="-","",VLOOKUP(H121, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H121="", "", IF(H121="-","",VLOOKUP(H121, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K122" s="11" t="str">
-        <f>IF(H122="", "", IF(H122="-","",VLOOKUP(H122, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H122="", "", IF(H122="-","",VLOOKUP(H122, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K123" s="11" t="str">
-        <f>IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K124" s="11" t="str">
-        <f>IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K125" s="11" t="str">
-        <f>IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K126" s="11" t="str">
-        <f>IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K127" s="11" t="str">
-        <f>IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K128" s="11" t="str">
-        <f>IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K129" s="11" t="str">
-        <f>IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K130" s="11" t="str">
-        <f>IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K131" s="11" t="str">
-        <f>IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K132" s="11" t="str">
-        <f>IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K133" s="11" t="str">
-        <f>IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K134" s="11" t="str">
-        <f>IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K135" s="11" t="str">
-        <f>IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K136" s="11" t="str">
-        <f>IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K137" s="11" t="str">
-        <f>IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K138" s="11" t="str">
-        <f>IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K139" s="11" t="str">
-        <f>IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K140" s="11" t="str">
-        <f>IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K141" s="11" t="str">
-        <f>IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K142" s="11" t="str">
-        <f>IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K143" s="11" t="str">
-        <f>IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K144" s="11" t="str">
-        <f>IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K145" s="11" t="str">
-        <f>IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K146" s="11" t="str">
-        <f>IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K147" s="11" t="str">
-        <f>IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K148" s="11" t="str">
-        <f>IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K149" s="11" t="str">
-        <f>IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K150" s="11" t="str">
-        <f>IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K151" s="11" t="str">
-        <f>IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K152" s="11" t="str">
-        <f>IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K153" s="11" t="str">
-        <f>IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K154" s="11" t="str">
-        <f>IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K155" s="11" t="str">
-        <f>IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K156" s="11" t="str">
-        <f>IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K157" s="11" t="str">
-        <f>IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K158" s="11" t="str">
-        <f>IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K159" s="11" t="str">
-        <f>IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K160" s="11" t="str">
-        <f>IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K161" s="11" t="str">
-        <f>IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K162" s="11" t="str">
-        <f>IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K163" s="11" t="str">
-        <f>IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K164" s="11" t="str">
-        <f>IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K165" s="11" t="str">
-        <f>IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K166" s="11" t="str">
-        <f>IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K167" s="11" t="str">
-        <f>IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K168" s="11" t="str">
-        <f>IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K169" s="11" t="str">
-        <f>IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K170" s="11" t="str">
-        <f>IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K171" s="11" t="str">
-        <f>IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K172" s="11" t="str">
-        <f>IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K173" s="11" t="str">
-        <f>IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K174" s="11" t="str">
-        <f>IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K175" s="11" t="str">
-        <f>IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K176" s="11" t="str">
-        <f>IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K177" s="11" t="str">
-        <f>IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K178" s="11" t="str">
-        <f>IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K179" s="11" t="str">
-        <f>IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K180" s="11" t="str">
-        <f>IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K181" s="11" t="str">
-        <f>IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K182" s="11" t="str">
-        <f>IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f>IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K183" s="11" t="str">
-        <f>IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Вода SKU'!$A$1:$C$50, 3, 0)))</f>
+        <f>IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Вода SKU'!$A$1:$C$49, 3, 0)))</f>
         <v/>
       </c>
     </row>
@@ -12092,7 +12101,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>'Типы варок'!$A$1:$A$102</xm:f>
           </x14:formula1>
@@ -12101,7 +12110,7 @@
           </x14:formula2>
           <xm:sqref>B2:B85</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>'Форм фактор плавления'!$A$1:$A$25</xm:f>
           </x14:formula1>
@@ -12110,7 +12119,7 @@
           </x14:formula2>
           <xm:sqref>E2:F85</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Мойки!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -12119,9 +12128,9 @@
           </x14:formula2>
           <xm:sqref>L1:L85</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
-            <xm:f>'Вода SKU'!$A$1:$A$137</xm:f>
+            <xm:f>'Вода SKU'!$A$1:$A$136</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
@@ -12135,41 +12144,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK278"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="21" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="22" customWidth="1"/>
-    <col min="15" max="15" width="1.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="22" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="6.6328125" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.54296875" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>299</v>
       </c>
@@ -12240,7 +12246,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35">
         <f ca="1">IF(O2="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R2)))))</f>
         <v>1</v>
@@ -12319,7 +12325,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="str">
         <f ca="1">IF(O3="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R3)))))</f>
         <v>-</v>
@@ -12397,7 +12403,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
         <f ca="1">IF(O4="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R4)))))</f>
         <v>2</v>
@@ -12477,7 +12483,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="str">
         <f ca="1">IF(O5="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R5)))))</f>
         <v>-</v>
@@ -12556,7 +12562,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
         <f ca="1">IF(O6="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R6)))))</f>
         <v>3</v>
@@ -12636,7 +12642,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="str">
         <f ca="1">IF(O7="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R7)))))</f>
         <v>-</v>
@@ -12715,7 +12721,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
         <f ca="1">IF(O8="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R8)))))</f>
         <v>4</v>
@@ -12795,7 +12801,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="str">
         <f ca="1">IF(O9="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R9)))))</f>
         <v>-</v>
@@ -12874,7 +12880,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <f ca="1">IF(O10="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R10)))))</f>
         <v>5</v>
@@ -12954,7 +12960,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="str">
         <f ca="1">IF(O11="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R11)))))</f>
         <v>-</v>
@@ -13033,7 +13039,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <f ca="1">IF(O12="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R12)))))</f>
         <v>6</v>
@@ -13113,7 +13119,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="str">
         <f ca="1">IF(O13="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R13)))))</f>
         <v>-</v>
@@ -13192,7 +13198,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <f ca="1">IF(O14="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R14)))))</f>
         <v>7</v>
@@ -13272,7 +13278,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="str">
         <f ca="1">IF(O15="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R15)))))</f>
         <v>-</v>
@@ -13351,7 +13357,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <f ca="1">IF(O16="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R16)))))</f>
         <v>8</v>
@@ -13431,7 +13437,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="str">
         <f ca="1">IF(O17="-", "-", 1 + MAX(Вода!$A$2:$A$63) + SUM(INDIRECT(ADDRESS(2,COLUMN(R17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R17)))))</f>
         <v>-</v>
@@ -13510,7 +13516,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J18" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -13561,7 +13567,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J19" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -13612,7 +13618,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J20" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -13663,7 +13669,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J21" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -13714,7 +13720,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J22" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -13765,7 +13771,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J23" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -13816,7 +13822,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J24" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -13867,7 +13873,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J25" s="11" t="str">
         <f t="shared" ref="J25:J56" ca="1" si="34">IF(M25="", IF(O25="","",X25+(INDIRECT("S" &amp; ROW() - 1) - S25)),IF(O25="", "", INDIRECT("S" &amp; ROW() - 1) - S25))</f>
         <v/>
@@ -13918,7 +13924,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J26" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -13969,7 +13975,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J27" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14020,7 +14026,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J28" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14071,7 +14077,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J29" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14122,7 +14128,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J30" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14173,7 +14179,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J31" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14224,7 +14230,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J32" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14275,7 +14281,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J33" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14326,7 +14332,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J34" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14377,7 +14383,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J35" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14428,7 +14434,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J36" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14479,7 +14485,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J37" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14530,7 +14536,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J38" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14581,7 +14587,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J39" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14632,7 +14638,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14683,7 +14689,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J41" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14734,7 +14740,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J42" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14785,7 +14791,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14836,7 +14842,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J44" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14887,7 +14893,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J45" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14938,7 +14944,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -14989,7 +14995,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -15040,7 +15046,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -15091,7 +15097,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -15142,7 +15148,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J50" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -15193,7 +15199,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -15244,7 +15250,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -15295,7 +15301,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -15346,7 +15352,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -15397,7 +15403,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -15448,7 +15454,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" s="11" t="str">
         <f t="shared" ca="1" si="34"/>
         <v/>
@@ -15499,7 +15505,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" s="11" t="str">
         <f t="shared" ref="J57:J88" ca="1" si="44">IF(M57="", IF(O57="","",X57+(INDIRECT("S" &amp; ROW() - 1) - S57)),IF(O57="", "", INDIRECT("S" &amp; ROW() - 1) - S57))</f>
         <v/>
@@ -15518,7 +15524,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" ref="Q57:Q88" ca="1" si="47">IF(O57 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P57)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P57)))), 0)</f>
+        <f t="shared" ref="Q57:Q64" ca="1" si="47">IF(O57 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(P57)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(P57)))), 0)</f>
         <v>0</v>
       </c>
       <c r="R57" s="1">
@@ -15550,7 +15556,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -15601,7 +15607,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -15652,7 +15658,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -15703,7 +15709,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -15754,7 +15760,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -15805,7 +15811,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -15856,7 +15862,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -15907,7 +15913,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -15958,7 +15964,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16009,7 +16015,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16060,7 +16066,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J68" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16111,7 +16117,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16162,7 +16168,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J70" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16213,7 +16219,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16264,7 +16270,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16315,7 +16321,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16366,7 +16372,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J74" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16417,7 +16423,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J75" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16468,7 +16474,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J76" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16519,7 +16525,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J77" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16570,7 +16576,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16621,7 +16627,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J79" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16672,7 +16678,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16723,7 +16729,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J81" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16774,7 +16780,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J82" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16825,7 +16831,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J83" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16876,7 +16882,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J84" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16927,7 +16933,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J85" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -16978,7 +16984,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J86" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -17029,7 +17035,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J87" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -17080,7 +17086,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J88" s="11" t="str">
         <f t="shared" ca="1" si="44"/>
         <v/>
@@ -17131,7 +17137,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J89" s="11" t="str">
         <f t="shared" ref="J89:J113" ca="1" si="55">IF(M89="", IF(O89="","",X89+(INDIRECT("S" &amp; ROW() - 1) - S89)),IF(O89="", "", INDIRECT("S" &amp; ROW() - 1) - S89))</f>
         <v/>
@@ -17142,11 +17148,11 @@
       </c>
       <c r="M89" s="20"/>
       <c r="N89" s="19" t="str">
-        <f t="shared" ref="N89:N120" ca="1" si="56">IF(M89="", IF(X89=0, "", X89), IF(V89 = "", "", IF(V89/U89 = 0, "", V89/U89)))</f>
+        <f t="shared" ref="N89:N113" ca="1" si="56">IF(M89="", IF(X89=0, "", X89), IF(V89 = "", "", IF(V89/U89 = 0, "", V89/U89)))</f>
         <v/>
       </c>
       <c r="P89" s="1">
-        <f t="shared" ref="P89:P120" si="57">IF(O89 = "-", -W89,I89)</f>
+        <f t="shared" ref="P89:P113" si="57">IF(O89 = "-", -W89,I89)</f>
         <v>0</v>
       </c>
       <c r="Q89" s="1">
@@ -17174,7 +17180,7 @@
         <v>0</v>
       </c>
       <c r="W89" s="1">
-        <f t="shared" ref="W89:W120" ca="1" si="62">IF(V89 = "", "", V89/U89)</f>
+        <f t="shared" ref="W89:W113" ca="1" si="62">IF(V89 = "", "", V89/U89)</f>
         <v>0</v>
       </c>
       <c r="X89" s="1" t="str">
@@ -17182,7 +17188,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J90" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17233,7 +17239,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J91" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17284,7 +17290,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J92" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17335,7 +17341,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J93" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17386,7 +17392,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J94" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17437,7 +17443,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J95" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17488,7 +17494,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J96" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17539,7 +17545,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J97" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17590,7 +17596,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J98" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17641,7 +17647,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J99" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17692,7 +17698,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J100" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17743,7 +17749,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J101" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17794,7 +17800,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J102" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17845,7 +17851,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J103" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17896,7 +17902,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J104" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17947,7 +17953,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J105" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -17998,7 +18004,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J106" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -18049,7 +18055,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J107" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -18100,7 +18106,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J108" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -18151,7 +18157,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J109" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -18202,7 +18208,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J110" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -18253,7 +18259,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J111" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -18304,7 +18310,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J112" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -18355,7 +18361,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J113" s="11" t="str">
         <f t="shared" ca="1" si="55"/>
         <v/>
@@ -18406,991 +18412,991 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K114" s="18" t="str">
         <f>IF(H114="", "", IF(H114="-","",VLOOKUP(H114, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K115" s="18" t="str">
         <f>IF(H115="", "", IF(H115="-","",VLOOKUP(H115, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K116" s="18" t="str">
         <f>IF(H116="", "", IF(H116="-","",VLOOKUP(H116, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K117" s="18" t="str">
         <f>IF(H117="", "", IF(H117="-","",VLOOKUP(H117, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K118" s="18" t="str">
         <f>IF(H118="", "", IF(H118="-","",VLOOKUP(H118, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K119" s="18" t="str">
         <f>IF(H119="", "", IF(H119="-","",VLOOKUP(H119, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K120" s="18" t="str">
         <f>IF(H120="", "", IF(H120="-","",VLOOKUP(H120, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K121" s="18" t="str">
         <f>IF(H121="", "", IF(H121="-","",VLOOKUP(H121, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K122" s="18" t="str">
         <f>IF(H122="", "", IF(H122="-","",VLOOKUP(H122, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K123" s="18" t="str">
         <f>IF(H123="", "", IF(H123="-","",VLOOKUP(H123, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K124" s="18" t="str">
         <f>IF(H124="", "", IF(H124="-","",VLOOKUP(H124, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K125" s="18" t="str">
         <f>IF(H125="", "", IF(H125="-","",VLOOKUP(H125, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K126" s="18" t="str">
         <f>IF(H126="", "", IF(H126="-","",VLOOKUP(H126, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K127" s="18" t="str">
         <f>IF(H127="", "", IF(H127="-","",VLOOKUP(H127, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K128" s="18" t="str">
         <f>IF(H128="", "", IF(H128="-","",VLOOKUP(H128, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K129" s="18" t="str">
         <f>IF(H129="", "", IF(H129="-","",VLOOKUP(H129, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K130" s="18" t="str">
         <f>IF(H130="", "", IF(H130="-","",VLOOKUP(H130, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K131" s="18" t="str">
         <f>IF(H131="", "", IF(H131="-","",VLOOKUP(H131, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K132" s="18" t="str">
         <f>IF(H132="", "", IF(H132="-","",VLOOKUP(H132, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K133" s="18" t="str">
         <f>IF(H133="", "", IF(H133="-","",VLOOKUP(H133, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K134" s="18" t="str">
         <f>IF(H134="", "", IF(H134="-","",VLOOKUP(H134, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K135" s="18" t="str">
         <f>IF(H135="", "", IF(H135="-","",VLOOKUP(H135, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K136" s="18" t="str">
         <f>IF(H136="", "", IF(H136="-","",VLOOKUP(H136, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K137" s="18" t="str">
         <f>IF(H137="", "", IF(H137="-","",VLOOKUP(H137, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K138" s="18" t="str">
         <f>IF(H138="", "", IF(H138="-","",VLOOKUP(H138, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K139" s="18" t="str">
         <f>IF(H139="", "", IF(H139="-","",VLOOKUP(H139, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K140" s="18" t="str">
         <f>IF(H140="", "", IF(H140="-","",VLOOKUP(H140, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K141" s="18" t="str">
         <f>IF(H141="", "", IF(H141="-","",VLOOKUP(H141, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K142" s="18" t="str">
         <f>IF(H142="", "", IF(H142="-","",VLOOKUP(H142, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K143" s="18" t="str">
         <f>IF(H143="", "", IF(H143="-","",VLOOKUP(H143, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K144" s="18" t="str">
         <f>IF(H144="", "", IF(H144="-","",VLOOKUP(H144, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K145" s="18" t="str">
         <f>IF(H145="", "", IF(H145="-","",VLOOKUP(H145, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K146" s="18" t="str">
         <f>IF(H146="", "", IF(H146="-","",VLOOKUP(H146, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K147" s="18" t="str">
         <f>IF(H147="", "", IF(H147="-","",VLOOKUP(H147, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K148" s="18" t="str">
         <f>IF(H148="", "", IF(H148="-","",VLOOKUP(H148, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K149" s="18" t="str">
         <f>IF(H149="", "", IF(H149="-","",VLOOKUP(H149, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K150" s="24" t="str">
         <f>IF(H150="", "", IF(H150="-","",VLOOKUP(H150, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K151" s="24" t="str">
         <f>IF(H151="", "", IF(H151="-","",VLOOKUP(H151, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K152" s="24" t="str">
         <f>IF(H152="", "", IF(H152="-","",VLOOKUP(H152, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K153" s="24" t="str">
         <f>IF(H153="", "", IF(H153="-","",VLOOKUP(H153, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K154" s="24" t="str">
         <f>IF(H154="", "", IF(H154="-","",VLOOKUP(H154, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K155" s="1" t="str">
         <f>IF(H155="", "", IF(H155="-","",VLOOKUP(H155, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K156" s="1" t="str">
         <f>IF(H156="", "", IF(H156="-","",VLOOKUP(H156, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K157" s="1" t="str">
         <f>IF(H157="", "", IF(H157="-","",VLOOKUP(H157, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K158" s="1" t="str">
         <f>IF(H158="", "", IF(H158="-","",VLOOKUP(H158, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K159" s="1" t="str">
         <f>IF(H159="", "", IF(H159="-","",VLOOKUP(H159, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K160" s="1" t="str">
         <f>IF(H160="", "", IF(H160="-","",VLOOKUP(H160, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K161" s="1" t="str">
         <f>IF(H161="", "", IF(H161="-","",VLOOKUP(H161, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K162" s="1" t="str">
         <f>IF(H162="", "", IF(H162="-","",VLOOKUP(H162, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K163" s="1" t="str">
         <f>IF(H163="", "", IF(H163="-","",VLOOKUP(H163, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K164" s="1" t="str">
         <f>IF(H164="", "", IF(H164="-","",VLOOKUP(H164, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K165" s="1" t="str">
         <f>IF(H165="", "", IF(H165="-","",VLOOKUP(H165, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K166" s="1" t="str">
         <f>IF(H166="", "", IF(H166="-","",VLOOKUP(H166, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K167" s="1" t="str">
         <f>IF(H167="", "", IF(H167="-","",VLOOKUP(H167, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K168" s="1" t="str">
         <f>IF(H168="", "", IF(H168="-","",VLOOKUP(H168, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K169" s="1" t="str">
         <f>IF(H169="", "", IF(H169="-","",VLOOKUP(H169, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K170" s="1" t="str">
         <f>IF(H170="", "", IF(H170="-","",VLOOKUP(H170, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K171" s="1" t="str">
         <f>IF(H171="", "", IF(H171="-","",VLOOKUP(H171, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K172" s="1" t="str">
         <f>IF(H172="", "", IF(H172="-","",VLOOKUP(H172, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K173" s="1" t="str">
         <f>IF(H173="", "", IF(H173="-","",VLOOKUP(H173, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K174" s="1" t="str">
         <f>IF(H174="", "", IF(H174="-","",VLOOKUP(H174, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K175" s="1" t="str">
         <f>IF(H175="", "", IF(H175="-","",VLOOKUP(H175, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K176" s="1" t="str">
         <f>IF(H176="", "", IF(H176="-","",VLOOKUP(H176, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K177" s="1" t="str">
         <f>IF(H177="", "", IF(H177="-","",VLOOKUP(H177, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K178" s="1" t="str">
         <f>IF(H178="", "", IF(H178="-","",VLOOKUP(H178, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K179" s="1" t="str">
         <f>IF(H179="", "", IF(H179="-","",VLOOKUP(H179, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K180" s="1" t="str">
         <f>IF(H180="", "", IF(H180="-","",VLOOKUP(H180, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K181" s="1" t="str">
         <f>IF(H181="", "", IF(H181="-","",VLOOKUP(H181, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K182" s="1" t="str">
         <f>IF(H182="", "", IF(H182="-","",VLOOKUP(H182, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K183" s="1" t="str">
         <f>IF(H183="", "", IF(H183="-","",VLOOKUP(H183, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K184" s="1" t="str">
         <f>IF(H184="", "", IF(H184="-","",VLOOKUP(H184, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K185" s="1" t="str">
         <f>IF(H185="", "", IF(H185="-","",VLOOKUP(H185, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K186" s="1" t="str">
         <f>IF(H186="", "", IF(H186="-","",VLOOKUP(H186, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K187" s="1" t="str">
         <f>IF(H187="", "", IF(H187="-","",VLOOKUP(H187, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K188" s="1" t="str">
         <f>IF(H188="", "", IF(H188="-","",VLOOKUP(H188, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K189" s="1" t="str">
         <f>IF(H189="", "", IF(H189="-","",VLOOKUP(H189, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K190" s="1" t="str">
         <f>IF(H190="", "", IF(H190="-","",VLOOKUP(H190, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K191" s="1" t="str">
         <f>IF(H191="", "", IF(H191="-","",VLOOKUP(H191, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K192" s="1" t="str">
         <f>IF(H192="", "", IF(H192="-","",VLOOKUP(H192, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K193" s="1" t="str">
         <f>IF(H193="", "", IF(H193="-","",VLOOKUP(H193, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K194" s="1" t="str">
         <f>IF(H194="", "", IF(H194="-","",VLOOKUP(H194, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K195" s="1" t="str">
         <f>IF(H195="", "", IF(H195="-","",VLOOKUP(H195, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K196" s="1" t="str">
         <f>IF(H196="", "", IF(H196="-","",VLOOKUP(H196, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K197" s="1" t="str">
         <f>IF(H197="", "", IF(H197="-","",VLOOKUP(H197, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K198" s="1" t="str">
         <f>IF(H198="", "", IF(H198="-","",VLOOKUP(H198, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K199" s="1" t="str">
         <f>IF(H199="", "", IF(H199="-","",VLOOKUP(H199, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K200" s="1" t="str">
         <f>IF(H200="", "", IF(H200="-","",VLOOKUP(H200, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K201" s="1" t="str">
         <f>IF(H201="", "", IF(H201="-","",VLOOKUP(H201, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K202" s="1" t="str">
         <f>IF(H202="", "", IF(H202="-","",VLOOKUP(H202, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K203" s="1" t="str">
         <f>IF(H203="", "", IF(H203="-","",VLOOKUP(H203, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K204" s="1" t="str">
         <f>IF(H204="", "", IF(H204="-","",VLOOKUP(H204, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K205" s="1" t="str">
         <f>IF(H205="", "", IF(H205="-","",VLOOKUP(H205, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K206" s="1" t="str">
         <f>IF(H206="", "", IF(H206="-","",VLOOKUP(H206, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K207" s="1" t="str">
         <f>IF(H207="", "", IF(H207="-","",VLOOKUP(H207, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K208" s="1" t="str">
         <f>IF(H208="", "", IF(H208="-","",VLOOKUP(H208, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K209" s="1" t="str">
         <f>IF(H209="", "", IF(H209="-","",VLOOKUP(H209, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K210" s="1" t="str">
         <f>IF(H210="", "", IF(H210="-","",VLOOKUP(H210, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K211" s="1" t="str">
         <f>IF(H211="", "", IF(H211="-","",VLOOKUP(H211, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K212" s="1" t="str">
         <f>IF(H212="", "", IF(H212="-","",VLOOKUP(H212, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K213" s="1" t="str">
         <f>IF(H213="", "", IF(H213="-","",VLOOKUP(H213, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K214" s="1" t="str">
         <f>IF(H214="", "", IF(H214="-","",VLOOKUP(H214, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K215" s="1" t="str">
         <f>IF(H215="", "", IF(H215="-","",VLOOKUP(H215, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K216" s="1" t="str">
         <f>IF(H216="", "", IF(H216="-","",VLOOKUP(H216, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K217" s="1" t="str">
         <f>IF(H217="", "", IF(H217="-","",VLOOKUP(H217, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K218" s="1" t="str">
         <f>IF(H218="", "", IF(H218="-","",VLOOKUP(H218, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K219" s="1" t="str">
         <f>IF(H219="", "", IF(H219="-","",VLOOKUP(H219, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K220" s="1" t="str">
         <f>IF(H220="", "", IF(H220="-","",VLOOKUP(H220, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K221" s="1" t="str">
         <f>IF(H221="", "", IF(H221="-","",VLOOKUP(H221, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K222" s="1" t="str">
         <f>IF(H222="", "", IF(H222="-","",VLOOKUP(H222, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K223" s="1" t="str">
         <f>IF(H223="", "", IF(H223="-","",VLOOKUP(H223, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K224" s="1" t="str">
         <f>IF(H224="", "", IF(H224="-","",VLOOKUP(H224, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K225" s="1" t="str">
         <f>IF(H225="", "", IF(H225="-","",VLOOKUP(H225, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K226" s="1" t="str">
         <f>IF(H226="", "", IF(H226="-","",VLOOKUP(H226, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K227" s="1" t="str">
         <f>IF(H227="", "", IF(H227="-","",VLOOKUP(H227, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K228" s="1" t="str">
         <f>IF(H228="", "", IF(H228="-","",VLOOKUP(H228, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K229" s="1" t="str">
         <f>IF(H229="", "", IF(H229="-","",VLOOKUP(H229, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K230" s="1" t="str">
         <f>IF(H230="", "", IF(H230="-","",VLOOKUP(H230, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K231" s="1" t="str">
         <f>IF(H231="", "", IF(H231="-","",VLOOKUP(H231, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K232" s="1" t="str">
         <f>IF(H232="", "", IF(H232="-","",VLOOKUP(H232, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K233" s="1" t="str">
         <f>IF(H233="", "", IF(H233="-","",VLOOKUP(H233, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K234" s="1" t="str">
         <f>IF(H234="", "", IF(H234="-","",VLOOKUP(H234, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K235" s="1" t="str">
         <f>IF(H235="", "", IF(H235="-","",VLOOKUP(H235, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K236" s="1" t="str">
         <f>IF(H236="", "", IF(H236="-","",VLOOKUP(H236, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K237" s="1" t="str">
         <f>IF(H237="", "", IF(H237="-","",VLOOKUP(H237, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K238" s="1" t="str">
         <f>IF(H238="", "", IF(H238="-","",VLOOKUP(H238, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K239" s="1" t="str">
         <f>IF(H239="", "", IF(H239="-","",VLOOKUP(H239, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K240" s="1" t="str">
         <f>IF(H240="", "", IF(H240="-","",VLOOKUP(H240, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K241" s="1" t="str">
         <f>IF(H241="", "", IF(H241="-","",VLOOKUP(H241, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K242" s="1" t="str">
         <f>IF(H242="", "", IF(H242="-","",VLOOKUP(H242, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K243" s="1" t="str">
         <f>IF(H243="", "", IF(H243="-","",VLOOKUP(H243, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K244" s="1" t="str">
         <f>IF(H244="", "", IF(H244="-","",VLOOKUP(H244, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K245" s="1" t="str">
         <f>IF(H245="", "", IF(H245="-","",VLOOKUP(H245, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K246" s="1" t="str">
         <f>IF(H246="", "", IF(H246="-","",VLOOKUP(H246, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K247" s="1" t="str">
         <f>IF(H247="", "", IF(H247="-","",VLOOKUP(H247, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K248" s="1" t="str">
         <f>IF(H248="", "", IF(H248="-","",VLOOKUP(H248, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K249" s="1" t="str">
         <f>IF(H249="", "", IF(H249="-","",VLOOKUP(H249, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K250" s="1" t="str">
         <f>IF(H250="", "", IF(H250="-","",VLOOKUP(H250, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K251" s="1" t="str">
         <f>IF(H251="", "", IF(H251="-","",VLOOKUP(H251, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K252" s="1" t="str">
         <f>IF(H252="", "", IF(H252="-","",VLOOKUP(H252, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K253" s="1" t="str">
         <f>IF(H253="", "", IF(H253="-","",VLOOKUP(H253, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K254" s="1" t="str">
         <f>IF(H254="", "", IF(H254="-","",VLOOKUP(H254, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K255" s="1" t="str">
         <f>IF(H255="", "", IF(H255="-","",VLOOKUP(H255, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K256" s="1" t="str">
         <f>IF(H256="", "", IF(H256="-","",VLOOKUP(H256, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K257" s="1" t="str">
         <f>IF(H257="", "", IF(H257="-","",VLOOKUP(H257, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K258" s="1" t="str">
         <f>IF(H258="", "", IF(H258="-","",VLOOKUP(H258, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K259" s="1" t="str">
         <f>IF(H259="", "", IF(H259="-","",VLOOKUP(H259, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K260" s="1" t="str">
         <f>IF(H260="", "", IF(H260="-","",VLOOKUP(H260, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K261" s="1" t="str">
         <f>IF(H261="", "", IF(H261="-","",VLOOKUP(H261, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K262" s="1" t="str">
         <f>IF(H262="", "", IF(H262="-","",VLOOKUP(H262, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K263" s="1" t="str">
         <f>IF(H263="", "", IF(H263="-","",VLOOKUP(H263, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K264" s="1" t="str">
         <f>IF(H264="", "", IF(H264="-","",VLOOKUP(H264, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K265" s="1" t="str">
         <f>IF(H265="", "", IF(H265="-","",VLOOKUP(H265, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K266" s="1" t="str">
         <f>IF(H266="", "", IF(H266="-","",VLOOKUP(H266, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K267" s="1" t="str">
         <f>IF(H267="", "", IF(H267="-","",VLOOKUP(H267, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K268" s="1" t="str">
         <f>IF(H268="", "", IF(H268="-","",VLOOKUP(H268, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K269" s="1" t="str">
         <f>IF(H269="", "", IF(H269="-","",VLOOKUP(H269, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K270" s="1" t="str">
         <f>IF(H270="", "", IF(H270="-","",VLOOKUP(H270, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K271" s="1" t="str">
         <f>IF(H271="", "", IF(H271="-","",VLOOKUP(H271, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="272" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K272" s="1" t="str">
         <f>IF(H272="", "", IF(H272="-","",VLOOKUP(H272, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="273" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K273" s="1" t="str">
         <f>IF(H273="", "", IF(H273="-","",VLOOKUP(H273, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="274" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K274" s="1" t="str">
         <f>IF(H274="", "", IF(H274="-","",VLOOKUP(H274, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="275" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K275" s="1" t="str">
         <f>IF(H275="", "", IF(H275="-","",VLOOKUP(H275, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="276" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K276" s="1" t="str">
         <f>IF(H276="", "", IF(H276="-","",VLOOKUP(H276, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K277" s="1" t="str">
         <f>IF(H277="", "", IF(H277="-","",VLOOKUP(H277, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
       </c>
     </row>
-    <row r="278" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="11:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K278" s="1" t="str">
         <f>IF(H278="", "", IF(H278="-","",VLOOKUP(H278, 'Соль SKU'!$A$1:$C$50, 3, 0)))</f>
         <v/>
@@ -19559,7 +19565,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>'Типы варок'!$A$1:$A$102</xm:f>
           </x14:formula1>
@@ -19568,7 +19574,7 @@
           </x14:formula2>
           <xm:sqref>B2:B113</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>'Форм фактор плавления'!$A$1:$A$25</xm:f>
           </x14:formula1>
@@ -19577,7 +19583,7 @@
           </x14:formula2>
           <xm:sqref>E2:F113</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Мойки!$A$1:$A$3</xm:f>
           </x14:formula1>
@@ -19586,7 +19592,7 @@
           </x14:formula2>
           <xm:sqref>L1:L113</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>'Соль SKU'!$A$1:$A$137</xm:f>
           </x14:formula1>
@@ -19602,29 +19608,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>332</v>
       </c>
@@ -19636,20 +19642,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:AMK2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>120</v>
       </c>
@@ -19668,16 +19674,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -19690,129 +19696,129 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMK23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>337</v>
       </c>
@@ -19824,20 +19830,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AMK28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>320</v>
       </c>
@@ -19848,7 +19854,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>45</v>
       </c>
@@ -19859,7 +19865,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>31</v>
       </c>
@@ -19870,7 +19876,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>339</v>
       </c>
@@ -19881,7 +19887,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>34</v>
       </c>
@@ -19892,7 +19898,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>42</v>
       </c>
@@ -19903,7 +19909,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>38</v>
       </c>
@@ -19914,7 +19920,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>39</v>
       </c>
@@ -19925,53 +19931,53 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>288</v>
@@ -19980,20 +19986,20 @@
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>270</v>
@@ -20002,9 +20008,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>270</v>
@@ -20013,20 +20019,20 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>288</v>
@@ -20035,9 +20041,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
-        <v>340</v>
+        <v>23</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>288</v>
@@ -20046,9 +20052,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>288</v>
@@ -20057,9 +20063,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>288</v>
@@ -20068,9 +20074,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>288</v>
@@ -20079,20 +20085,20 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>294</v>
@@ -20101,20 +20107,20 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>288</v>
@@ -20123,36 +20129,25 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>270</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="32" t="s">
         <v>338</v>
       </c>
     </row>
